--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43475,6 +43475,41 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43510,6 +43510,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43545,6 +43545,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>174100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43580,6 +43580,41 @@
         <v>174100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>20300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43615,6 +43615,43 @@
         <v>20300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43652,6 +43652,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43689,6 +43689,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>88100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43724,6 +43724,41 @@
         <v>88100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43759,6 +43759,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43794,6 +43794,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>52500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43829,6 +43829,43 @@
         <v>52500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43866,6 +43866,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>15200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43901,6 +43901,76 @@
         <v>15200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>282900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43971,6 +43971,80 @@
         <v>282900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44045,6 +44045,43 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44082,6 +44082,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>30100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44117,6 +44117,41 @@
         <v>30100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>20100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44152,6 +44152,41 @@
         <v>20100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>262800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44187,6 +44187,76 @@
         <v>262800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>36600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44257,6 +44257,41 @@
         <v>36600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>63000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44292,6 +44292,41 @@
         <v>63000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>75700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2491"/>
+  <dimension ref="A1:I2492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88077,6 +88077,41 @@
         <v>75700</v>
       </c>
     </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2492" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2492" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2492" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2492" t="n">
+        <v>205300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2492"/>
+  <dimension ref="A1:I2493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88112,6 +88112,41 @@
         <v>205300</v>
       </c>
     </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2493" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2493" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2493" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2493" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2493"/>
+  <dimension ref="A1:I2494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88147,6 +88147,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="2494">
+      <c r="A2494" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2494" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2494" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2494" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2494" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2494" t="n">
+        <v>195600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2494"/>
+  <dimension ref="A1:I2495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88182,6 +88182,41 @@
         <v>195600</v>
       </c>
     </row>
+    <row r="2495">
+      <c r="A2495" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2495" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2495" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2495" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2495" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2495" t="n">
+        <v>144900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2495"/>
+  <dimension ref="A1:I2496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88217,6 +88217,41 @@
         <v>144900</v>
       </c>
     </row>
+    <row r="2496">
+      <c r="A2496" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2496" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2496" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2496" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2496" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2496" t="n">
+        <v>80500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2496"/>
+  <dimension ref="A1:I2497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88252,6 +88252,41 @@
         <v>80500</v>
       </c>
     </row>
+    <row r="2497">
+      <c r="A2497" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2497" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2497" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2497" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2497" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2497" t="n">
+        <v>83300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2497"/>
+  <dimension ref="A1:I2498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88287,6 +88287,41 @@
         <v>83300</v>
       </c>
     </row>
+    <row r="2498">
+      <c r="A2498" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2498" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2498" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2498" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2498" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2498" t="n">
+        <v>23700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2498"/>
+  <dimension ref="A1:I2499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88322,6 +88322,41 @@
         <v>23700</v>
       </c>
     </row>
+    <row r="2499">
+      <c r="A2499" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2499" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2499" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2499" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2499" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2499" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2499"/>
+  <dimension ref="A1:I2500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88357,6 +88357,41 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="2500">
+      <c r="A2500" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2500" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2500" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2500" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2500" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2500" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2500"/>
+  <dimension ref="A1:I2501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88392,6 +88392,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2501">
+      <c r="A2501" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2501" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2501" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2501" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2501" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2501" t="n">
+        <v>238800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2501"/>
+  <dimension ref="A1:I2502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88427,6 +88427,43 @@
         <v>238800</v>
       </c>
     </row>
+    <row r="2502">
+      <c r="A2502" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2502" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2502" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2502" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2502" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2502" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2502"/>
+  <dimension ref="A1:I2503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88464,6 +88464,41 @@
         </is>
       </c>
     </row>
+    <row r="2503">
+      <c r="A2503" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2503" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2503" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2503" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2503" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2503" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2503"/>
+  <dimension ref="A1:I2504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88499,6 +88499,41 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="2504">
+      <c r="A2504" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2504" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2504" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2504" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2504" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2504" t="n">
+        <v>288800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2504"/>
+  <dimension ref="A1:I2505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88534,6 +88534,43 @@
         <v>288800</v>
       </c>
     </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2505" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2505" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2505" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2505" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7005.xlsx
+++ b/data/7005.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2505"/>
+  <dimension ref="A1:I2506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88571,6 +88571,43 @@
         </is>
       </c>
     </row>
+    <row r="2506">
+      <c r="A2506" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E2506" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2506" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2506" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
